--- a/模拟盘/趋势模拟盘/SimulationTrading.xlsx
+++ b/模拟盘/趋势模拟盘/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="149">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,13 +597,17 @@
   </si>
   <si>
     <t>SF805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -612,7 +616,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,7 +910,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -920,7 +924,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1133,7 +1136,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1303,7 +1306,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1380,7 +1383,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -2681,7 +2684,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2720,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,17 +3032,17 @@
       <selection pane="bottomLeft" activeCell="A27" sqref="A27:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3058,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3071,10 +3074,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!Q1/成交记录!P1</f>
-        <v>0.22115384615384615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.22935779816513763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3090,10 +3093,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!S1/成交记录!T1</f>
-        <v>0.73994123454614091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.74100356851742433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3105,85 +3108,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>0.97581989999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3315,25 +3318,25 @@
         <v>0.98014959999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3353,29 +3356,29 @@
   <dimension ref="A1:U371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="A11:P11"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="1.875" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3418,27 +3421,27 @@
       <c r="O1" s="13"/>
       <c r="P1" s="10">
         <f>COUNT(K2:K9988)</f>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="13">
         <f>COUNTIF(K2:K9988,"&gt;0")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R1" s="13">
         <f>COUNTIF(K2:K9988,"&lt;0")</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S1" s="13">
         <f>SUMIF(K2:K9988,"&gt;0")</f>
-        <v>444331.5</v>
+        <v>447681.5</v>
       </c>
       <c r="T1" s="13">
         <f>ABS(SUMIF(K2:K9988,"&lt;0"))</f>
-        <v>600495.66000000038</v>
+        <v>604155.66000000038</v>
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3533,7 +3536,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3560,7 +3563,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3601,7 +3604,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3638,7 +3641,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3680,7 +3683,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3722,7 +3725,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3835,7 +3838,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -3942,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -3972,7 +3975,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4099,7 +4102,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4209,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1">
+    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>60</v>
@@ -4235,7 +4238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -4310,7 +4313,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4418,7 +4421,7 @@
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4455,7 +4458,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" ht="15" thickBot="1">
+    <row r="36" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -4489,7 +4492,7 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4521,7 +4524,7 @@
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>42</v>
       </c>
@@ -4550,7 +4553,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>43</v>
       </c>
@@ -4583,7 +4586,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>36</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>37</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>35</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>32</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>38</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>39</v>
@@ -4808,7 +4811,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>40</v>
@@ -4844,7 +4847,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -4880,7 +4883,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4911,7 +4914,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>40</v>
@@ -4949,7 +4952,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -4980,7 +4983,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -5010,7 +5013,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -5037,7 +5040,7 @@
       <c r="O52" s="36"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>53</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>56</v>
@@ -5494,7 +5497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>42</v>
@@ -5620,7 +5623,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>19</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1">
+    <row r="78" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>89</v>
@@ -5894,7 +5897,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>93</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>94</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>95</v>
@@ -6122,7 +6125,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>96</v>
@@ -6304,7 +6307,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
@@ -6351,7 +6354,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>104</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>106</v>
@@ -6757,7 +6760,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>32</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>60</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
@@ -6933,7 +6936,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>109</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>111</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>112</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>114</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="14.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>120</v>
@@ -7293,7 +7296,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="14.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>129</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="14.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>130</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="14.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="14.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>133</v>
       </c>
@@ -7489,9 +7492,18 @@
         <f>5%*0.5</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K114" s="30" t="str">
+      <c r="H114" s="1">
+        <v>668.6</v>
+      </c>
+      <c r="I114" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J114" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="K114" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N114" s="11">
         <f>[1]!WSD($B114,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -7505,7 +7517,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="14.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>137</v>
       </c>
@@ -7544,7 +7556,7 @@
       <c r="O115" s="53"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>138</v>
       </c>
@@ -7583,7 +7595,7 @@
       <c r="O116" s="53"/>
       <c r="P116" s="24"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>134</v>
       </c>
@@ -7628,7 +7640,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="14.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
@@ -7673,7 +7685,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" thickBot="1">
+    <row r="119" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>136</v>
@@ -7721,7 +7733,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="14.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -7760,7 +7772,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="14.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>139</v>
       </c>
@@ -7796,7 +7808,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="14.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>140</v>
       </c>
@@ -7816,9 +7828,18 @@
         <f>1.1%*1/3</f>
         <v>3.666666666666667E-3</v>
       </c>
-      <c r="K122" s="30" t="str">
+      <c r="H122" s="1">
+        <v>2914</v>
+      </c>
+      <c r="I122" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J122" s="40">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="K122" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-360</v>
       </c>
       <c r="N122" s="11">
         <f>[1]!WSD($B122,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -7832,7 +7853,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="14.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>60</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="14.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
@@ -7924,7 +7945,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="14.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>141</v>
       </c>
@@ -7960,7 +7981,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="14.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>142</v>
       </c>
@@ -7980,9 +8001,18 @@
         <f>4.3%*0.5</f>
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="K126" s="30" t="str">
+      <c r="H126" s="1">
+        <v>2038</v>
+      </c>
+      <c r="I126" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J126" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="K126" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2450</v>
       </c>
       <c r="N126" s="11">
         <f>[1]!WSD($B126,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -7996,7 +8026,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="14.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>143</v>
       </c>
@@ -8016,11 +8046,21 @@
         <f>2.6%*0.5</f>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="K127" s="30" t="str">
+      <c r="H127" s="1">
+        <v>3936</v>
+      </c>
+      <c r="I127" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J127" s="40">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="K127" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-3300</v>
       </c>
       <c r="N127" s="11">
+        <f>[1]!WSD($B127,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O127" s="53">
@@ -8031,7 +8071,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="14.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>144</v>
       </c>
@@ -8056,6 +8096,7 @@
         <v/>
       </c>
       <c r="N128" s="11">
+        <f>[1]!WSD($B128,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O128" s="53">
@@ -8066,7 +8107,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="2:16" ht="14.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>145</v>
       </c>
@@ -8091,6 +8132,7 @@
         <v/>
       </c>
       <c r="N129" s="11">
+        <f>[1]!WSD($B129,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
       </c>
       <c r="O129" s="53">
@@ -8101,7 +8143,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="2:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>146</v>
       </c>
@@ -8133,7 +8175,8 @@
         <f t="shared" si="15"/>
         <v>-1299.9999999999545</v>
       </c>
-      <c r="N130" s="12">
+      <c r="N130" s="11">
+        <f>[1]!WSD($B130,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10000</v>
       </c>
       <c r="O130" s="53">
@@ -8144,7 +8187,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="2:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>147</v>
       </c>
@@ -8177,7 +8220,8 @@
         <f t="shared" si="15"/>
         <v>-720</v>
       </c>
-      <c r="N131" s="12">
+      <c r="N131" s="11">
+        <f>[1]!WSD($B131,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O131" s="53">
@@ -8188,31 +8232,38 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="2:16">
-      <c r="B132" s="1" t="s">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="3">
         <v>12</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="3">
         <v>6648</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="33">
         <v>43129</v>
       </c>
-      <c r="F132" s="40">
+      <c r="F132" s="45">
         <v>0.62152777777777779</v>
       </c>
-      <c r="G132" s="31">
+      <c r="G132" s="32">
         <f>1.8%*1/3</f>
         <v>6.000000000000001E-3</v>
       </c>
-      <c r="K132" s="30" t="str">
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="28" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N132" s="12">
+      <c r="L132" s="3"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="11">
+        <f>[1]!WSD($B132,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
       </c>
       <c r="O132" s="53">
@@ -8223,1437 +8274,1539 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="2:16">
-      <c r="K133" s="30" t="str">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>53510</v>
+      </c>
+      <c r="E133" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F133" s="40">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="G133" s="31">
+        <f>1.5%*0.5</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H133" s="1">
+        <v>53420</v>
+      </c>
+      <c r="I133" s="2">
+        <v>43129</v>
+      </c>
+      <c r="J133" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="K133" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="2:16">
+        <v>900</v>
+      </c>
+      <c r="N133" s="11">
+        <f>[1]!WSD($B133,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O133" s="53">
+        <v>9777017</v>
+      </c>
+      <c r="P133" s="24">
+        <f t="shared" ref="P133" si="59">O133*G133/(D133*N133*0.15)</f>
+        <v>1.8271382919080545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D134" s="1">
+        <v>14845</v>
+      </c>
+      <c r="E134" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F134" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G134" s="31">
+        <f>2.3%*0.5</f>
+        <v>1.15E-2</v>
+      </c>
       <c r="K134" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="2:16">
+      <c r="N134" s="11">
+        <f>[1]!WSD($B134,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O134" s="53">
+        <v>9777018</v>
+      </c>
+      <c r="P134" s="24">
+        <f t="shared" ref="P134" si="60">O134*G134/(D134*N134*0.15)</f>
+        <v>10.098637655776356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2823</v>
+      </c>
+      <c r="E135" s="2">
+        <v>43129</v>
+      </c>
+      <c r="F135" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G135" s="31">
+        <f>0.2%*1/3</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
       <c r="K135" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="2:16">
+      <c r="N135" s="11">
+        <f>[1]!WSD($B135,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O135" s="53">
+        <v>9777019</v>
+      </c>
+      <c r="P135" s="24">
+        <f t="shared" ref="P135" si="61">O135*G135/(D135*N135*0.15)</f>
+        <v>1.5392638249301374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K136" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K137" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K138" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K139" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K140" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K141" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K145" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K146" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="11:11">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K147" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="11:11">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K148" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11">
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K149" s="30" t="str">
-        <f t="shared" ref="K149:K212" si="59">IF(H149="","",C149*(H149-D149)*N149)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
+        <f t="shared" ref="K149:K212" si="62">IF(H149="","",C149*(H149-D149)*N149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K150" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K151" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K152" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K153" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K154" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K155" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K156" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K157" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K210" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K213" s="30" t="str">
-        <f t="shared" ref="K213:K276" si="60">IF(H213="","",C213*(H213-D213)*N213)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
+        <f t="shared" ref="K213:K276" si="63">IF(H213="","",C213*(H213-D213)*N213)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K274" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K277" s="30" t="str">
-        <f t="shared" ref="K277:K340" si="61">IF(H277="","",C277*(H277-D277)*N277)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
+        <f t="shared" ref="K277:K340" si="64">IF(H277="","",C277*(H277-D277)*N277)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K338" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K341" s="30" t="str">
-        <f t="shared" ref="K341:K371" si="62">IF(H341="","",C341*(H341-D341)*N341)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11">
+        <f t="shared" ref="K341:K371" si="65">IF(H341="","",C341*(H341-D341)*N341)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K369" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K370" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="11:11">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K371" s="30" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
     </row>
@@ -9673,13 +9826,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9712,7 +9865,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -9744,7 +9897,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -9776,7 +9929,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -9808,7 +9961,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -9840,7 +9993,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -9872,7 +10025,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -9904,7 +10057,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -9936,7 +10089,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -9962,7 +10115,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -9994,7 +10147,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -10027,7 +10180,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -10059,7 +10212,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -10091,7 +10244,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -10123,7 +10276,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -10155,7 +10308,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -10187,7 +10340,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -10219,7 +10372,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -10251,7 +10404,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -10283,7 +10436,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -10316,7 +10469,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -10348,7 +10501,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -10380,7 +10533,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -10412,7 +10565,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -10444,7 +10597,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -10476,7 +10629,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -10508,7 +10661,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -10540,7 +10693,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -10572,7 +10725,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -10604,7 +10757,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -10636,7 +10789,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -10668,7 +10821,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -10719,17 +10872,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10754,7 +10907,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -10777,7 +10930,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -10797,7 +10950,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -10817,7 +10970,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -10840,7 +10993,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -10863,7 +11016,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -10883,7 +11036,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -10903,7 +11056,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -10926,7 +11079,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -10949,7 +11102,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -10969,7 +11122,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -10989,7 +11142,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -11009,7 +11162,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -11047,15 +11200,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -11087,7 +11240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -11117,7 +11270,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -11147,7 +11300,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -11177,7 +11330,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -11207,7 +11360,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -11237,7 +11390,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -11267,7 +11420,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -11297,7 +11450,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -11327,7 +11480,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -11357,7 +11510,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -11387,7 +11540,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -11417,7 +11570,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -11444,7 +11597,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -11471,7 +11624,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -11498,7 +11651,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -11525,7 +11678,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -11552,7 +11705,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -11579,7 +11732,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -11606,7 +11759,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -11633,7 +11786,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -11660,7 +11813,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -11687,7 +11840,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -11714,7 +11867,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -11741,7 +11894,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -11768,7 +11921,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -11795,7 +11948,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -11822,7 +11975,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -11849,7 +12002,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -11876,7 +12029,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -11903,7 +12056,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -11930,7 +12083,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -11957,7 +12110,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -11984,7 +12137,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -12011,7 +12164,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -12038,7 +12191,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -12065,7 +12218,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -12092,7 +12245,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -12119,7 +12272,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -12146,7 +12299,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -12173,7 +12326,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -12200,7 +12353,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -12227,7 +12380,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -12254,7 +12407,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -12281,7 +12434,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -12308,31 +12461,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>
